--- a/Desafios/08/Pair Programming.xlsx
+++ b/Desafios/08/Pair Programming.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\AppData\Development\Bootcamp-71241\Desafios\08\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF198C18-A483-44F4-A322-C18253332423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,128 +27,125 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t xml:space="preserve">Tareas de Pair Programming - Práctico 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrante 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrante 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosana Gascon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Quintana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">William Omar Cueto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximiliano Teves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Victoria Isac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorenzo Vera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana de Oliveira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Villalba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cecilia Verónica Coronel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luciano Mariani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustín Giuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Rodriguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Anyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Mendoza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facundo Gimbernat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Bautista Martinelli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Boccaccio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Mandirola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johard Díaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Toledo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatiana Iglesias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina Vegetti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martín Desch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Román Ledesma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facundo Díaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Ponte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Eiriz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Loren Seballes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Heredia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federico Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Araceli Bonader</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sindy González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leila Orue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tadeo Sakalauskas</t>
+    <t>Tareas de Pair Programming - Práctico 08</t>
+  </si>
+  <si>
+    <t>Grupos</t>
+  </si>
+  <si>
+    <t>Integrante 1</t>
+  </si>
+  <si>
+    <t>Integrante 2</t>
+  </si>
+  <si>
+    <t>Rosana Gascon</t>
+  </si>
+  <si>
+    <t>Andrea Quintana</t>
+  </si>
+  <si>
+    <t>William Omar Cueto</t>
+  </si>
+  <si>
+    <t>Maximiliano Teves</t>
+  </si>
+  <si>
+    <t>María Victoria Isac</t>
+  </si>
+  <si>
+    <t>Lorenzo Vera</t>
+  </si>
+  <si>
+    <t>Mariana de Oliveira</t>
+  </si>
+  <si>
+    <t>Matías Villalba</t>
+  </si>
+  <si>
+    <t>Cecilia Verónica Coronel</t>
+  </si>
+  <si>
+    <t>Luciano Mariani</t>
+  </si>
+  <si>
+    <t>Agustín Giuli</t>
+  </si>
+  <si>
+    <t>David Rodriguez</t>
+  </si>
+  <si>
+    <t>Claudia Anyer</t>
+  </si>
+  <si>
+    <t>Diego Mendoza</t>
+  </si>
+  <si>
+    <t>Facundo Gimbernat</t>
+  </si>
+  <si>
+    <t>Juan Bautista Martinelli</t>
+  </si>
+  <si>
+    <t>Santiago Boccaccio</t>
+  </si>
+  <si>
+    <t>Sebastián Mandirola</t>
+  </si>
+  <si>
+    <t>Johard Díaz</t>
+  </si>
+  <si>
+    <t>Victor Toledo</t>
+  </si>
+  <si>
+    <t>Tatiana Iglesias</t>
+  </si>
+  <si>
+    <t>Gina Vegetti</t>
+  </si>
+  <si>
+    <t>Martín Desch</t>
+  </si>
+  <si>
+    <t>Román Ledesma</t>
+  </si>
+  <si>
+    <t>Facundo Díaz</t>
+  </si>
+  <si>
+    <t>Matías Ponte</t>
+  </si>
+  <si>
+    <t>Nicolás Eiriz</t>
+  </si>
+  <si>
+    <t>Loren Seballes</t>
+  </si>
+  <si>
+    <t>Matías Heredia</t>
+  </si>
+  <si>
+    <t>Federico Ramos</t>
+  </si>
+  <si>
+    <t>Araceli Bonader</t>
+  </si>
+  <si>
+    <t>Sindy González</t>
+  </si>
+  <si>
+    <t>Leila Orue</t>
+  </si>
+  <si>
+    <t>Tadeo Sakalauskas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,22 +154,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -203,7 +190,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,134 +227,123 @@
         <bgColor rgb="FFCCCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -426,37 +402,345 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="40.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.11"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:4" ht="40.5" customHeight="1">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:4" ht="40.5" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -467,19 +751,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B6" s="15">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="7" t="n">
+    <row r="7" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B7" s="7">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -489,8 +773,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -500,19 +784,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
+    <row r="9" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B9" s="15">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -522,30 +806,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="n">
+    <row r="11" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B11" s="15">
         <v>6</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B12" s="15">
         <v>7</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="n">
+    <row r="13" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B13" s="7">
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -555,19 +839,19 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B14" s="15">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7" t="n">
+    <row r="15" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B15" s="7">
         <v>10</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -577,63 +861,63 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B16" s="4">
         <v>11</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
+    <row r="17" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B17" s="15">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="n">
+    <row r="18" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B18" s="15">
         <v>13</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="n">
+    <row r="19" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B19" s="15">
         <v>14</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B20" s="15">
         <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="n">
+    <row r="21" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B21" s="7">
         <v>16</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -643,8 +927,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="n">
+    <row r="22" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B22" s="7">
         <v>17</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -654,28 +938,28 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7" t="n">
+    <row r="23" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B23" s="7">
         <v>18</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7" t="n">
+    <row r="24" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B24" s="7">
         <v>19</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="7" t="n">
+    <row r="25" spans="2:4" ht="40.5" customHeight="1">
+      <c r="B25" s="7">
         <v>20</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="40.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:4" ht="40.5" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -684,12 +968,7 @@
   <mergeCells count="1">
     <mergeCell ref="B4:D4"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Desafios/08/Pair Programming.xlsx
+++ b/Desafios/08/Pair Programming.xlsx
@@ -242,8 +242,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -456,8 +456,8 @@
   </sheetPr>
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,7 +654,7 @@
       <c r="B21" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="6" t="s">
